--- a/Divisions/EPL.xlsx
+++ b/Divisions/EPL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Rsoccer\Divisions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61C8C1C-32EE-413A-A0ED-5BF6DA42ABAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A25A9E-BA3D-4D4D-A8D6-EC358B937E6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4240,12 +4240,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4260,11 +4266,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4582,10 +4590,10 @@
   <dimension ref="A1:BS381"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AM125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="A134" sqref="A134:XFD134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24000,218 +24008,218 @@
         <v>5.45</v>
       </c>
     </row>
-    <row r="91" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+    <row r="91" spans="1:71" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="4">
         <v>3.7509999999999999</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="F91" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="G91" s="4" t="s">
         <v>798</v>
       </c>
-      <c r="H91" s="2" t="s">
+      <c r="H91" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="I91" s="2" t="s">
+      <c r="I91" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="J91" s="2">
+      <c r="J91" s="4">
         <v>1.31</v>
       </c>
-      <c r="K91" s="2" t="s">
+      <c r="K91" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="L91" s="2">
+      <c r="L91" s="4">
         <v>4.5199999999999996</v>
       </c>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="4" t="s">
         <v>1222</v>
       </c>
-      <c r="N91" s="2">
+      <c r="N91" s="4">
         <v>1.36</v>
       </c>
-      <c r="O91" s="2" t="s">
+      <c r="O91" s="4" t="s">
         <v>973</v>
       </c>
-      <c r="P91" s="2">
+      <c r="P91" s="4">
         <v>3.95</v>
       </c>
-      <c r="Q91" s="2">
+      <c r="Q91" s="4">
         <v>36.231999999999999</v>
       </c>
-      <c r="R91" s="2">
+      <c r="R91" s="4">
         <v>25.445</v>
       </c>
-      <c r="S91" s="2">
+      <c r="S91" s="4">
         <v>14.948</v>
       </c>
-      <c r="T91" s="2">
+      <c r="T91" s="4">
         <v>42.552999999999997</v>
       </c>
-      <c r="U91" s="2">
+      <c r="U91" s="4">
         <v>21.007999999999999</v>
       </c>
-      <c r="V91" s="2">
+      <c r="V91" s="4">
         <v>17.606000000000002</v>
       </c>
-      <c r="W91" s="2">
+      <c r="W91" s="4">
         <v>12.361000000000001</v>
       </c>
-      <c r="X91" s="2" t="s">
+      <c r="X91" s="4" t="s">
         <v>1297</v>
       </c>
-      <c r="Y91" s="2" t="s">
-        <v>1323</v>
-      </c>
-      <c r="Z91" s="2" t="s">
+      <c r="Y91" s="4" t="s">
+        <v>1323</v>
+      </c>
+      <c r="Z91" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="AA91" s="2">
+      <c r="AA91" s="4">
         <v>-3</v>
       </c>
-      <c r="AB91" s="2">
+      <c r="AB91" s="4">
         <v>3</v>
       </c>
-      <c r="AC91" s="2" t="s">
+      <c r="AC91" s="4" t="s">
         <v>1332</v>
       </c>
-      <c r="AD91" s="2" t="s">
+      <c r="AD91" s="4" t="s">
         <v>1333</v>
       </c>
-      <c r="AE91" s="2" t="s">
-        <v>1323</v>
-      </c>
-      <c r="AF91" s="2" t="s">
+      <c r="AE91" s="4" t="s">
+        <v>1323</v>
+      </c>
+      <c r="AF91" s="4" t="s">
         <v>1339</v>
       </c>
-      <c r="AG91" s="2" t="s">
+      <c r="AG91" s="4" t="s">
         <v>1345</v>
       </c>
-      <c r="AH91" s="2" t="s">
-        <v>1323</v>
-      </c>
-      <c r="AI91" s="2" t="s">
+      <c r="AH91" s="4" t="s">
+        <v>1323</v>
+      </c>
+      <c r="AI91" s="4" t="s">
         <v>1351</v>
       </c>
-      <c r="AJ91" s="2" t="s">
+      <c r="AJ91" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AK91" s="2" t="s">
-        <v>1323</v>
-      </c>
-      <c r="AL91" s="2">
+      <c r="AK91" s="4" t="s">
+        <v>1323</v>
+      </c>
+      <c r="AL91" s="4">
         <v>1.7</v>
       </c>
-      <c r="AM91" s="2">
+      <c r="AM91" s="4">
         <v>2.42</v>
       </c>
-      <c r="AN91" s="3">
+      <c r="AN91" s="5">
         <v>4.12</v>
       </c>
-      <c r="AO91" s="2" t="s">
-        <v>1323</v>
-      </c>
-      <c r="AP91" s="2">
+      <c r="AO91" s="4" t="s">
+        <v>1323</v>
+      </c>
+      <c r="AP91" s="4">
         <v>7.11</v>
       </c>
-      <c r="AQ91" s="2">
+      <c r="AQ91" s="4">
         <v>4.92</v>
       </c>
-      <c r="AR91" s="2">
+      <c r="AR91" s="4">
         <v>12.030000000000001</v>
       </c>
-      <c r="AS91" s="2" t="s">
-        <v>1323</v>
-      </c>
-      <c r="AT91" s="2">
+      <c r="AS91" s="4" t="s">
+        <v>1323</v>
+      </c>
+      <c r="AT91" s="4">
         <v>11.82</v>
       </c>
-      <c r="AU91" s="2">
+      <c r="AU91" s="4">
         <v>11.62</v>
       </c>
-      <c r="AV91" s="2">
+      <c r="AV91" s="4">
         <v>23.439999999999998</v>
       </c>
-      <c r="AW91" s="2">
+      <c r="AW91" s="4">
         <v>0.19</v>
       </c>
-      <c r="AX91" s="2">
+      <c r="AX91" s="4">
         <v>0.12</v>
       </c>
-      <c r="AY91" s="2">
+      <c r="AY91" s="4">
         <v>2.2458</v>
       </c>
-      <c r="AZ91" s="2">
+      <c r="AZ91" s="4">
         <v>1.3943999999999999</v>
       </c>
-      <c r="BA91" s="3">
+      <c r="BA91" s="5">
         <v>3.64</v>
       </c>
-      <c r="BB91" s="2" t="s">
-        <v>1323</v>
-      </c>
-      <c r="BC91" s="2">
+      <c r="BB91" s="4" t="s">
+        <v>1323</v>
+      </c>
+      <c r="BC91" s="4">
         <v>2.02</v>
       </c>
-      <c r="BD91" s="2">
+      <c r="BD91" s="4">
         <v>1.78</v>
       </c>
-      <c r="BE91" s="3">
+      <c r="BE91" s="5">
         <v>3.8</v>
       </c>
-      <c r="BF91" s="2" t="s">
-        <v>1323</v>
-      </c>
-      <c r="BG91" s="2">
+      <c r="BF91" s="4" t="s">
+        <v>1323</v>
+      </c>
+      <c r="BG91" s="4">
         <v>5.86</v>
       </c>
-      <c r="BH91" s="2">
+      <c r="BH91" s="4">
         <v>5.47</v>
       </c>
-      <c r="BI91" s="3">
+      <c r="BI91" s="5">
         <v>11.33</v>
       </c>
-      <c r="BJ91" s="2" t="s">
-        <v>1323</v>
-      </c>
-      <c r="BK91" s="2">
+      <c r="BJ91" s="4" t="s">
+        <v>1323</v>
+      </c>
+      <c r="BK91" s="4">
         <v>0.59</v>
       </c>
-      <c r="BL91" s="2">
+      <c r="BL91" s="4">
         <v>0.54</v>
       </c>
-      <c r="BM91" s="2">
+      <c r="BM91" s="4">
         <v>7.11</v>
       </c>
-      <c r="BN91" s="2">
+      <c r="BN91" s="4">
         <v>4.92</v>
       </c>
-      <c r="BO91" s="2">
+      <c r="BO91" s="4">
         <v>12.030000000000001</v>
       </c>
-      <c r="BP91" s="2" t="s">
-        <v>1323</v>
-      </c>
-      <c r="BQ91" s="2">
+      <c r="BP91" s="4" t="s">
+        <v>1323</v>
+      </c>
+      <c r="BQ91" s="4">
         <v>4.1900000000000004</v>
       </c>
-      <c r="BR91" s="2">
+      <c r="BR91" s="4">
         <v>2.66</v>
       </c>
-      <c r="BS91" s="3">
+      <c r="BS91" s="5">
         <v>6.8500000000000005</v>
       </c>
     </row>
